--- a/flows/WEAT_fund_flow_data.xlsx
+++ b/flows/WEAT_fund_flow_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2981"/>
+  <dimension ref="A1:B2994"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30245,6 +30245,136 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2982">
+      <c r="A2982" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B2982" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2983">
+      <c r="A2983" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B2983" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2984">
+      <c r="A2984" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B2984" t="n">
+        <v>-1.572</v>
+      </c>
+    </row>
+    <row r="2985">
+      <c r="A2985" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B2985" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2986">
+      <c r="A2986" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B2986" t="n">
+        <v>1.4245</v>
+      </c>
+    </row>
+    <row r="2987">
+      <c r="A2987" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B2987" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2988">
+      <c r="A2988" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B2988" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2989">
+      <c r="A2989" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B2989" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2990">
+      <c r="A2990" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B2990" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2991">
+      <c r="A2991" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B2991" t="n">
+        <v>1.046</v>
+      </c>
+    </row>
+    <row r="2992">
+      <c r="A2992" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B2992" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2993">
+      <c r="A2993" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B2993" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2994">
+      <c r="A2994" t="inlineStr">
+        <is>
+          <t>2024-03-18</t>
+        </is>
+      </c>
+      <c r="B2994" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
